--- a/biology/Médecine/Ministère_de_la_Santé_de_la_RDA/Ministère_de_la_Santé_de_la_RDA.xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_de_la_RDA/Ministère_de_la_Santé_de_la_RDA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_de_la_RDA</t>
+          <t>Ministère_de_la_Santé_de_la_RDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère de la Santé de la République démocratique allemande (RDA) (Ministerium für Gesundheitswesen der DDR) était le ministère chargé de la politique sanitaire au sein du gouvernement de la RDA. Il est créé en 1949 et dissous à la réunification de cette dernière avec la République fédérale d'Allemagne (RFA), en 1990. Ses fonctions ont alors été reprises par le ministère fédéral de la Santé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_de_la_RDA</t>
+          <t>Ministère_de_la_Santé_de_la_RDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure et fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1949 et 1950, le ministère possède également le portefeuille du Travail (Minister für Arbeit und Gesundheitswesen).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_de_la_RDA</t>
+          <t>Ministère_de_la_Santé_de_la_RDA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_de_la_RDA</t>
+          <t>Ministère_de_la_Santé_de_la_RDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_de_la_RDA</t>
+          <t>Ministère_de_la_Santé_de_la_RDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,7 +613,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gouvernement de la RDA
  Portail de la République démocratique allemande   Portail de la médecine   Portail de l’histoire   Portail de la politique   Portail du communisme                 </t>
